--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/WEST_VIRGINIA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/WEST_VIRGINIA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C9">
@@ -514,7 +514,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C11">
@@ -672,7 +672,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -773,7 +773,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C40">
@@ -978,7 +978,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C44">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C50">
@@ -1087,7 +1087,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C52">
@@ -1126,7 +1126,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C55">
@@ -1139,7 +1139,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C56">
@@ -1248,7 +1248,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C64">
@@ -1261,7 +1261,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C65">
@@ -1274,7 +1274,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C66">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C69">
@@ -1331,7 +1331,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C70">
@@ -1357,7 +1357,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C72">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C89">
@@ -1606,7 +1606,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C90">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C92">
@@ -1650,7 +1650,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C93">
@@ -1663,7 +1663,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C94">
@@ -1754,7 +1754,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C101">
@@ -1780,7 +1780,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C103">
@@ -1793,7 +1793,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C104">
@@ -1806,7 +1806,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C105">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C110">
@@ -1894,7 +1894,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C111">
@@ -1907,7 +1907,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C112">
@@ -1977,7 +1977,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C117">
@@ -2104,7 +2104,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C126">
@@ -2130,7 +2130,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C128">
@@ -2325,76 +2325,6 @@
       </c>
       <c r="D142">
         <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/WEST_VIRGINIA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/WEST_VIRGINIA_2017.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -758,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Total</t>
@@ -789,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Temoaya</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -828,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Cuerámaro</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Huanímaro</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -937,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>León</t>
@@ -950,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -1015,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1137,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -1150,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -1163,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -1176,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -1220,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Pacula</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -1259,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -1272,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Zacualtipán De Ángeles</t>
@@ -1285,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1298,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1381,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -1394,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -1407,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1438,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Indaparapeo</t>
@@ -1451,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1464,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -1477,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -1490,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -1503,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -1516,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1529,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1560,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1573,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1604,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -1617,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1648,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1661,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>San Francisco Del Mar</t>
@@ -1674,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>San Juan Guichicovi</t>
@@ -1687,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Santa María Colotepec</t>
@@ -1700,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -1713,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Santiago Camotlán</t>
@@ -1726,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Santiago Yosondúa</t>
@@ -1739,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Santiago Zoochila</t>
@@ -1752,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -1765,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -1778,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Teotitlán De Flores Magón</t>
@@ -1791,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
@@ -1804,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1817,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1848,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -1861,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1892,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -1905,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -1918,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1931,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1962,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -1975,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>San Ciro De Acosta</t>
@@ -1988,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2019,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -2032,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2063,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Chocamán</t>
@@ -2076,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2089,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -2102,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -2115,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -2128,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Ixhuatlán Del Café</t>
@@ -2141,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -2154,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -2167,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -2180,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Tamalín</t>
@@ -2193,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2206,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -2219,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Tlaltetela</t>
@@ -2232,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -2245,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2276,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -2289,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -2302,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Total</t>
